--- a/Recycling/A2/Baseline/A2_Min_hist.xlsx
+++ b/Recycling/A2/Baseline/A2_Min_hist.xlsx
@@ -587,10 +587,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -965,10 +965,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1343,10 +1343,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1721,10 +1721,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2099,10 +2099,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2188,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2477,10 +2477,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2855,10 +2855,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -2944,7 +2944,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3233,10 +3233,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3611,10 +3611,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -3989,10 +3989,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4078,7 +4078,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4367,10 +4367,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4456,7 +4456,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -4745,10 +4745,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -4834,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5123,10 +5123,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5212,7 +5212,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5501,10 +5501,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5590,7 +5590,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -5879,10 +5879,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6257,10 +6257,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6346,7 +6346,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -6635,10 +6635,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7013,10 +7013,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7102,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7391,10 +7391,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7769,10 +7769,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -7858,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8147,10 +8147,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8236,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8525,10 +8525,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -8903,10 +8903,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -8992,7 +8992,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9281,10 +9281,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9370,7 +9370,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -9659,10 +9659,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10037,10 +10037,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10415,10 +10415,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -10793,10 +10793,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -10882,7 +10882,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11171,10 +11171,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11260,7 +11260,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11549,10 +11549,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -11638,7 +11638,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -11927,10 +11927,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12305,10 +12305,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12394,7 +12394,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -12683,10 +12683,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -12772,7 +12772,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13061,10 +13061,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13150,7 +13150,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13439,10 +13439,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -13817,10 +13817,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -13906,7 +13906,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14195,10 +14195,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14284,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14573,10 +14573,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -14662,7 +14662,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -14951,10 +14951,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -15040,7 +15040,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15329,10 +15329,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -15418,7 +15418,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -15707,10 +15707,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -15796,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16085,10 +16085,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -16174,7 +16174,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16463,10 +16463,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -16552,7 +16552,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -16841,10 +16841,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -16930,7 +16930,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17219,10 +17219,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -17308,7 +17308,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17597,10 +17597,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -17686,7 +17686,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -17975,10 +17975,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -18064,7 +18064,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18353,10 +18353,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -18442,7 +18442,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -18731,10 +18731,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -18820,7 +18820,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -19109,10 +19109,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -19198,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -19487,10 +19487,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -19576,7 +19576,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -19865,10 +19865,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -19954,7 +19954,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20243,10 +20243,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -20332,7 +20332,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20621,10 +20621,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -20710,7 +20710,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -20999,10 +20999,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -21088,7 +21088,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21377,10 +21377,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -21466,7 +21466,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -21755,10 +21755,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -21844,7 +21844,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22133,10 +22133,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -22222,7 +22222,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22511,10 +22511,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -22600,7 +22600,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -22889,10 +22889,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -22978,7 +22978,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23267,10 +23267,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -23356,7 +23356,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -23645,10 +23645,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -23734,7 +23734,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -24023,10 +24023,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -24112,7 +24112,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -24401,10 +24401,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -24779,10 +24779,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -24868,7 +24868,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25157,10 +25157,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -25246,7 +25246,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25535,10 +25535,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -25624,7 +25624,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -25913,10 +25913,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -26002,7 +26002,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26291,10 +26291,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -26669,10 +26669,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -26758,7 +26758,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27047,10 +27047,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -27136,7 +27136,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27425,10 +27425,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -27514,7 +27514,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -27803,10 +27803,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -27892,7 +27892,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -28181,10 +28181,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -28270,7 +28270,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -28559,10 +28559,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -28648,7 +28648,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -28937,10 +28937,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -29026,7 +29026,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -29315,10 +29315,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -29404,7 +29404,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -29693,10 +29693,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -29782,7 +29782,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30071,10 +30071,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -30160,7 +30160,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30449,10 +30449,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -30538,7 +30538,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -30827,10 +30827,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -30916,7 +30916,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31205,10 +31205,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -31294,7 +31294,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31583,10 +31583,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -31672,7 +31672,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -31961,10 +31961,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -32050,7 +32050,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32339,10 +32339,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -32428,7 +32428,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -32717,10 +32717,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -32806,7 +32806,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33095,10 +33095,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -33184,7 +33184,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33473,10 +33473,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -33562,7 +33562,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -33851,10 +33851,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -33940,7 +33940,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -34229,10 +34229,10 @@
         <v>11</v>
       </c>
       <c r="D7">
-        <v>-0.00722568</v>
+        <v>-0.021252</v>
       </c>
       <c r="E7">
-        <v>-0.013909434</v>
+        <v>-0.0409101</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -34318,7 +34318,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>-0.1094863266737135</v>
+        <v>-0.3220186078638633</v>
       </c>
     </row>
     <row r="12" spans="1:7">

--- a/Recycling/A2/Baseline/A2_Min_hist.xlsx
+++ b/Recycling/A2/Baseline/A2_Min_hist.xlsx
@@ -138,7 +138,7 @@
     <t>Dysprosium</t>
   </si>
   <si>
-    <t>Copper ores and concentrates</t>
+    <t>Copper</t>
   </si>
   <si>
     <t>Raw silicon</t>
